--- a/documents/D1-DB定義書.xlsx
+++ b/documents/D1-DB定義書.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDB1A2E-FCA0-4C84-B535-A720DDDD81BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE03A5B-4E66-42F7-B05A-80AB3BF46F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="login (2)" sheetId="9" r:id="rId1"/>
     <sheet name="login" sheetId="4" r:id="rId2"/>
     <sheet name="personal" sheetId="2" r:id="rId3"/>
     <sheet name="Forum" sheetId="8" r:id="rId4"/>
+    <sheet name="favorite" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
-  <si>
-    <t>テーブル一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="71">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -109,10 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -198,19 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板兼ユーザ管理app</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録基本情報</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -228,10 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -333,46 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインidとpwの管理を行います</t>
-    <rPh sb="10" eb="12">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインユーザの情報管理を行います</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本情報</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理番号</t>
-    <rPh sb="0" eb="4">
-      <t>カンリバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -409,10 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未入力は不可</t>
     <rPh sb="0" eb="3">
       <t>ミニュウリョク</t>
@@ -434,194 +363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿内容を保存します。</t>
-    <rPh sb="0" eb="4">
-      <t>トウコウナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ノウハウ共有</t>
-    <rPh sb="4" eb="6">
-      <t>キョウユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラー共有</t>
-    <rPh sb="3" eb="5">
-      <t>キョウユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>悩み相談</t>
-    <rPh sb="0" eb="1">
-      <t>ナヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地元トーク</t>
-    <rPh sb="0" eb="2">
-      <t>ジモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プライベート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>know how</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>problem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>local</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>private</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理番号</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーに関する投稿を収める列</t>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オサ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ノウハウに関する投稿を収める列</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オサ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>精神的心理的悩みに関する投稿を収める</t>
-    <rPh sb="0" eb="3">
-      <t>セイシンテキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シンリテキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナヤ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問に関する投稿を収める</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地元のことなどフランクなことに関する投稿を収める</t>
-    <rPh sb="0" eb="2">
-      <t>ジモト</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日常に関する投稿を収めます</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自分を一文字で</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -629,6 +370,137 @@
     <rPh sb="3" eb="6">
       <t>イチモジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿管理番号</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容種別</t>
+    <rPh sb="0" eb="4">
+      <t>ナイヨウシュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～6の番号を投稿内容によって管理する</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1．ノウハウの共有</t>
+    <rPh sb="7" eb="9">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2．エラーの共有</t>
+    <rPh sb="6" eb="8">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3．悩み相談</t>
+    <rPh sb="2" eb="3">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4．質問</t>
+    <rPh sb="2" eb="4">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5．ジモトーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6．プライベート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿を一括管理</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿管理番号</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウカンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ管理番号</t>
+    <rPh sb="3" eb="7">
+      <t>カンリバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_number</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,7 +508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,14 +532,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -726,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,9 +613,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,394 +952,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31052B70-657A-4440-836A-DC0DC038094C}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="7">
         <v>44351</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table login (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>password varchar (20)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
-        <v>6</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
-        <v>7</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
-        <v>8</v>
-      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
-        <v>9</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
-        <v>10</v>
-      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
-        <v>11</v>
-      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="e">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
-        <v>12</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
-        <v>13</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
-        <v>14</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
-        <v>15</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
-        <v>16</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
-        <v>17</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
-        <v>18</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
-        <v>19</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
-        <v>20</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
-        <v>21</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
-        <v>22</v>
-      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="3">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="3">
-        <v>24</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="3">
-        <v>25</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
-        <v>26</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="3">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="3">
-        <v>28</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="3">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="3">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1505,34 +1491,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="7">
         <v>44351</v>
@@ -1542,13 +1528,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
@@ -1556,13 +1542,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5"/>
@@ -1570,34 +1556,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -1609,27 +1595,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1641,13 +1627,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1655,7 +1641,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1990,7 +1976,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2003,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2022,34 +2008,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="7">
         <v>44351</v>
@@ -2059,13 +2045,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
@@ -2073,13 +2059,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5"/>
@@ -2087,34 +2073,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -2126,26 +2112,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>name varchar ,</v>
       </c>
     </row>
@@ -2154,13 +2140,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2168,14 +2154,14 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>company varchar (20),</v>
       </c>
     </row>
@@ -2184,13 +2170,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
         <v>45</v>
@@ -2198,14 +2184,14 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>nickname varchar (45),</v>
       </c>
     </row>
@@ -2214,13 +2200,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -2228,14 +2214,14 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>birthplace varchar (20),</v>
       </c>
     </row>
@@ -2244,13 +2230,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -2258,14 +2244,14 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>thisisme char (10),</v>
       </c>
     </row>
@@ -2274,13 +2260,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -2288,14 +2274,14 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L15" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>hobby varchar (1),</v>
       </c>
     </row>
@@ -2304,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3">
         <v>150</v>
@@ -2318,14 +2304,14 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L16" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>future varchar (150),</v>
       </c>
     </row>
@@ -2334,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3">
         <v>150</v>
@@ -2348,11 +2334,11 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L17" t="e">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2364,13 +2350,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E18" s="3">
         <v>150</v>
@@ -2378,11 +2364,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -2493,11 +2479,546 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
+        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2946F5-BC6D-426D-B23B-11BEAAC53E0A}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table forum (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="e">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="e">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="e">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
         <f t="shared" ref="L24:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2515,7 +3036,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2533,7 +3054,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2551,7 +3072,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2569,7 +3090,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2587,23 +3108,24 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2946F5-BC6D-426D-B23B-11BEAAC53E0A}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1877525C-E2B4-4E6E-8627-E93B8F102D80}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2621,50 +3143,50 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="7">
-        <v>44354</v>
+        <v>44351</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
@@ -2672,13 +3194,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5"/>
@@ -2686,38 +3208,38 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table forum (</v>
+        <v>create table login (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2725,27 +3247,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>error varchar (250),</v>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2753,167 +3269,119 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>250</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>problem varchar (250),</v>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3">
-        <v>250</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>question varchar (250),</v>
+        <f t="shared" ref="L10:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3">
-        <v>250</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>local varchar (250),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3">
-        <v>250</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3">
-        <v>250</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3">
-        <v>250</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -3056,7 +3524,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3074,7 +3542,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3092,7 +3560,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3110,7 +3578,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3128,7 +3596,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3146,17 +3614,18 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/D1-DB定義書.xlsx
+++ b/documents/D1-DB定義書.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE03A5B-4E66-42F7-B05A-80AB3BF46F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E39D6B6-293C-4DD6-A3D9-CB11F294ECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login (2)" sheetId="9" r:id="rId1"/>
+    <sheet name="テーブル一覧" sheetId="11" r:id="rId1"/>
     <sheet name="login" sheetId="4" r:id="rId2"/>
     <sheet name="personal" sheetId="2" r:id="rId3"/>
     <sheet name="Forum" sheetId="8" r:id="rId4"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="82">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -501,6 +501,68 @@
   </si>
   <si>
     <t>m_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真フォルダー</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>タイプ</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>ユーザ管理番号</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本情報</t>
+    <rPh sb="0" eb="4">
+      <t>キホンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seeggs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -590,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +672,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -952,11 +1032,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31052B70-657A-4440-836A-DC0DC038094C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93ED180-25D1-4247-9B33-903A63DE5679}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>43991</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="11">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="11">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="11">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="11">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="11">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="11">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="11">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="11">
+        <v>19</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="11">
+        <v>20</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="11">
+        <v>21</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="11">
+        <v>22</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="11">
+        <v>23</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="11">
+        <v>24</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="11">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="11">
+        <v>26</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="11">
+        <v>27</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="11">
+        <v>28</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="11">
+        <v>29</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="11">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="11">
+        <v>31</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0415EA-7CDC-4D28-A7DA-7E2D9B102E52}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,78 +1572,86 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20)</v>
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="L10" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="11">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  (20)</v>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L12" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1165,7 +1668,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L10:L16" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1236,10 +1739,6 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -1254,10 +1753,6 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
@@ -1468,12 +1963,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0415EA-7CDC-4D28-A7DA-7E2D9B102E52}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1531,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1545,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1587,7 +2082,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table login (</v>
+        <v>create table personal (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1595,31 +2090,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20)</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>name varchar (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1627,171 +2120,249 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  (20)</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>company varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>nickname varchar (45),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>birthplace varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>thisisme char (10),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>hobby varchar (1),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>future varchar (150),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="J17" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3">
+        <v>150</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="J18" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3">
+        <v>150</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="J19" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -1880,7 +2451,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L24:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1898,7 +2469,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1916,7 +2487,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1934,7 +2505,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1952,7 +2523,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1970,7 +2541,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1982,15 +2553,554 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2946F5-BC6D-426D-B23B-11BEAAC53E0A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table forum (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="e">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="e">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="e">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" ref="L24:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1877525C-E2B4-4E6E-8627-E93B8F102D80}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2048,7 +3158,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2062,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2104,7 +3214,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table personal (</v>
+        <v>create table login (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2117,1143 +3227,10 @@
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>name varchar ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>company varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>nickname varchar (45),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>birthplace varchar (20),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>thisisme char (10),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>hobby varchar (1),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3">
-        <v>150</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>future varchar (150),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3">
-        <v>150</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3">
-        <v>150</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2946F5-BC6D-426D-B23B-11BEAAC53E0A}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table forum (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" t="e">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1877525C-E2B4-4E6E-8627-E93B8F102D80}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44351</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table login (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3278,7 +3255,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>46</v>
@@ -3308,7 +3285,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" ref="L10:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L12:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/documents/D1-DB定義書.xlsx
+++ b/documents/D1-DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E39D6B6-293C-4DD6-A3D9-CB11F294ECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D126A-8942-4AC7-B3E6-B6C9F2B00337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="11" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93ED180-25D1-4247-9B33-903A63DE5679}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0415EA-7CDC-4D28-A7DA-7E2D9B102E52}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1589,10 +1589,6 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="L10" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -1620,10 +1616,6 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1649,10 +1641,6 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -1668,7 +1656,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L10:L16" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L13:L16" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1960,6 +1948,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2133,7 +2122,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>company varchar (20),</v>
       </c>
     </row>
@@ -2163,7 +2152,7 @@
         <v>50</v>
       </c>
       <c r="L12" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>nickname varchar (45),</v>
       </c>
     </row>
@@ -2193,7 +2182,7 @@
         <v>50</v>
       </c>
       <c r="L13" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>birthplace varchar (20),</v>
       </c>
     </row>
@@ -2223,7 +2212,7 @@
         <v>50</v>
       </c>
       <c r="L14" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>thisisme char (10),</v>
       </c>
     </row>
@@ -2253,7 +2242,7 @@
         <v>50</v>
       </c>
       <c r="L15" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>hobby varchar (1),</v>
       </c>
     </row>
@@ -2283,7 +2272,7 @@
         <v>50</v>
       </c>
       <c r="L16" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>future varchar (150),</v>
       </c>
     </row>
@@ -2451,7 +2440,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2469,7 +2458,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2487,7 +2476,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2505,7 +2494,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2523,7 +2512,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2541,7 +2530,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2561,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2946F5-BC6D-426D-B23B-11BEAAC53E0A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2704,10 +2693,6 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -2731,10 +2716,6 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2752,10 +2733,6 @@
       <c r="J12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L12" t="e">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -2772,10 +2749,6 @@
       <c r="J13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L13" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -2792,10 +2765,6 @@
       <c r="J14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L14" t="e">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -2812,10 +2781,6 @@
       <c r="J15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -2832,10 +2797,6 @@
       <c r="J16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L16" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -2852,10 +2813,6 @@
       <c r="J17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -2879,10 +2836,6 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2898,10 +2851,6 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
@@ -2916,10 +2865,6 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
@@ -2934,10 +2879,6 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
@@ -2952,10 +2893,6 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="L22" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -2970,10 +2907,6 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
@@ -2988,10 +2921,6 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
@@ -3007,7 +2936,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L24:L29" si="0">C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3099,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1877525C-E2B4-4E6E-8627-E93B8F102D80}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3236,10 +3165,6 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -3266,10 +3191,6 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -3374,10 +3295,6 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -3392,10 +3309,6 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">

--- a/documents/D1-DB定義書.xlsx
+++ b/documents/D1-DB定義書.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D126A-8942-4AC7-B3E6-B6C9F2B00337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A35DAA-EF52-4005-AEC0-DBC29E83BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="11" r:id="rId1"/>
-    <sheet name="login" sheetId="4" r:id="rId2"/>
-    <sheet name="personal" sheetId="2" r:id="rId3"/>
-    <sheet name="Forum" sheetId="8" r:id="rId4"/>
-    <sheet name="favorite" sheetId="10" r:id="rId5"/>
+    <sheet name="personal" sheetId="2" r:id="rId2"/>
+    <sheet name="Forum" sheetId="8" r:id="rId3"/>
+    <sheet name="favorite" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="81">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -201,10 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>personal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -326,22 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各自で設定。同じidは不可</t>
-    <rPh sb="0" eb="2">
-      <t>カクジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未入力は不可</t>
     <rPh sb="0" eb="3">
       <t>ミニュウリョク</t>
@@ -489,17 +468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ管理番号</t>
-    <rPh sb="3" eb="7">
-      <t>カンリバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>m_number</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -531,16 +499,6 @@
     <t>テーブル</t>
   </si>
   <si>
-    <t>ユーザ管理番号</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>favorite</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -563,6 +521,40 @@
   </si>
   <si>
     <t>seeggs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>youser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各自で設定。ユニークキーでの重複防止</t>
+    <rPh sb="0" eb="2">
+      <t>カクジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キーでの紐づけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時にidをセッションスコープに格納</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -570,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +581,22 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -652,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +701,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93ED180-25D1-4247-9B33-903A63DE5679}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1050,7 +1064,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1080,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>3</v>
@@ -1113,7 +1127,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>7</v>
@@ -1122,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>9</v>
@@ -1134,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" s="11"/>
     </row>
@@ -1150,13 +1164,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" s="11"/>
     </row>
@@ -1166,13 +1180,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -1181,15 +1195,9 @@
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>76</v>
-      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1447,11 +1455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0415EA-7CDC-4D28-A7DA-7E2D9B102E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1493,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1509,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1523,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1565,7 +1573,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table login (</v>
+        <v>create table youser (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1573,49 +1581,59 @@
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="11">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="11">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>49</v>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L16" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>company varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1623,159 +1641,249 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>nickname varchar (45),</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L16" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="0"/>
+        <v>birthplace varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>thisisme char (10),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>hobby varchar (1),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>future varchar (150),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3">
+        <v>150</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3">
+        <v>150</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="J19" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3">
+        <v>150</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="J20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -1953,11 +2061,489 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2946F5-BC6D-426D-B23B-11BEAAC53E0A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B18" sqref="B18:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table forum (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" ref="L25:L29" si="0">C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1877525C-E2B4-4E6E-8627-E93B8F102D80}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1999,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2015,7 +2601,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2029,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2071,7 +2657,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table personal (</v>
+        <v>create table login (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2079,29 +2665,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>name varchar (10),</v>
+      <c r="J10" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2109,249 +2689,171 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>company varchar (20),</v>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>nickname varchar (45),</v>
+        <f t="shared" ref="L12:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  (1000)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>birthplace varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>thisisme char (10),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>hobby varchar (1),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>future varchar (150),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3">
-        <v>150</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3">
-        <v>150</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3">
-        <v>150</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
-        <v>50</v>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2379,7 +2881,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2544,978 +3046,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2946F5-BC6D-426D-B23B-11BEAAC53E0A}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table forum (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" ref="L24:L29" si="0">C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1877525C-E2B4-4E6E-8627-E93B8F102D80}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44351</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table login (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" ref="L12:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>